--- a/ExampleData/AusteniteStabilityCalcs.xlsx
+++ b/ExampleData/AusteniteStabilityCalcs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/787946d61a7c1773/Documents/GitHub/AusteniteCalculator/ExampleData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/creuzige/Documents/NIST_Research/GitHub/AusteniteCalculator/ExampleData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="8_{AD15DD6D-3475-4B51-8E47-8A90286A8DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{461759C1-7BF3-4532-938B-1CE6D2817CAD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00270BE0-450B-4C45-839A-7AE16074BDB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8F8E91D0-3304-4246-92F7-15E06BB18A68}"/>
+    <workbookView xWindow="660" yWindow="500" windowWidth="23640" windowHeight="14380" xr2:uid="{8F8E91D0-3304-4246-92F7-15E06BB18A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -214,6 +214,9 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -221,9 +224,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -543,15 +543,15 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -577,22 +577,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <f xml:space="preserve"> 413-(462*(B3+C3))-(9.2*(D3))-(8.1*(E3))-(13.7*(F3))-(9.5*(G3))-(18.5*(H3))</f>
         <v>-297.7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>0.25</v>
       </c>
@@ -615,22 +615,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <f xml:space="preserve"> 413-(462*(B5+C5))-(9.2*(D5))-(8.1*(E5))-(13.7*(F5))-(9.5*(G5))-(18.5*(H5))</f>
         <v>-96.299999999999955</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>0</v>
       </c>
@@ -653,22 +653,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <f xml:space="preserve"> 413-(462*(B7+C7))-(9.2*(D7))-(8.1*(E7))-(13.7*(F7))-(9.5*(G7))-(18.5*(H7))</f>
         <v>-19.40500000000003</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="5">
         <v>316</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>0.04</v>
       </c>
@@ -691,22 +691,22 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <f xml:space="preserve"> 413-(462*(B9+C9))-(9.2*(D9))-(8.1*(E9))-(13.7*(F9))-(9.5*(G9))-(18.5*(H9))</f>
         <v>84.700000000000045</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="2">
         <v>201</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>0</v>
       </c>
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -755,51 +755,51 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <f>561-474*B13-33*E13-17*F13-17*G13-21*H13</f>
-        <v>-170</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+        <v>-439.5</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G13">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <f>561-474*B15-33*E15-17*F15-17*G15-21*H15</f>
-        <v>-439.5</v>
+        <v>-170</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -808,45 +808,45 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G15">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <f>561-474*B17-33*E17-17*F17-17*G17-21*H17</f>
         <v>-15.210000000000036</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="5">
         <v>316</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>0.04</v>
       </c>
@@ -869,22 +869,22 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <f>561-474*B19-33*E19-17*F19-17*G19-21*H19</f>
         <v>-19</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="2">
         <v>201</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>0</v>
       </c>
@@ -910,8 +910,8 @@
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B14:H14"/>
     <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B14:H14"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B16:H16"/>

--- a/ExampleData/AusteniteStabilityCalcs.xlsx
+++ b/ExampleData/AusteniteStabilityCalcs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/creuzige/Documents/NIST_Research/GitHub/AusteniteCalculator/ExampleData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00270BE0-450B-4C45-839A-7AE16074BDB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689C0546-20C0-D948-9A45-2A488778A216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="500" windowWidth="23640" windowHeight="14380" xr2:uid="{8F8E91D0-3304-4246-92F7-15E06BB18A68}"/>
   </bookViews>
@@ -543,7 +543,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
